--- a/CHATBOT/socios.xlsx
+++ b/CHATBOT/socios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,24 +448,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JUancito</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1457895</t>
+          <t>54654658</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KILO</t>
+          <t>Matete</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>887997</t>
+          <t>4589475</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4335506</t>
         </is>
       </c>
     </row>

--- a/CHATBOT/socios.xlsx
+++ b/CHATBOT/socios.xlsx
@@ -1,37 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/matigarcia_frba_utn_edu_ar/Documents/Repo Nuevo/ChatBot/PART1/CHATBOT/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD37059E2389E7AB34D3088B35299F704" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D370ADB-2CE7-4EA6-AC2C-1B696F48D010}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>fechaNac</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>pisodpto</t>
+  </si>
+  <si>
+    <t>localidad</t>
+  </si>
+  <si>
+    <t>provincia</t>
+  </si>
+  <si>
+    <t>codPost</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>telfijo</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>ocupacion</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Matias Ezequiel</t>
+  </si>
+  <si>
+    <t>75864589</t>
+  </si>
+  <si>
+    <t>18/10/2027</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>masculino</t>
+  </si>
+  <si>
+    <t>ensenada 331</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>ARGENTINO</t>
+  </si>
+  <si>
+    <t>46718250</t>
+  </si>
+  <si>
+    <t>1159919807</t>
+  </si>
+  <si>
+    <t>MATIAS@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>INGENIERO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +151,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,65 +475,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Documento</t>
-        </is>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>54654658</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Matete</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4589475</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pedro</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4335506</t>
-        </is>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/CHATBOT/socios.xlsx
+++ b/CHATBOT/socios.xlsx
@@ -1,142 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/matigarcia_frba_utn_edu_ar/Documents/Repo Nuevo/ChatBot/PART1/CHATBOT/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD37059E2389E7AB34D3088B35299F704" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D370ADB-2CE7-4EA6-AC2C-1B696F48D010}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>apellido</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>fechaNac</t>
-  </si>
-  <si>
-    <t>edad</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>direccion</t>
-  </si>
-  <si>
-    <t>pisodpto</t>
-  </si>
-  <si>
-    <t>localidad</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>codPost</t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>telfijo</t>
-  </si>
-  <si>
-    <t>celular</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>ocupacion</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Matias Ezequiel</t>
-  </si>
-  <si>
-    <t>75864589</t>
-  </si>
-  <si>
-    <t>18/10/2027</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>masculino</t>
-  </si>
-  <si>
-    <t>ensenada 331</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>CABA</t>
-  </si>
-  <si>
-    <t>1407</t>
-  </si>
-  <si>
-    <t>ARGENTINO</t>
-  </si>
-  <si>
-    <t>46718250</t>
-  </si>
-  <si>
-    <t>1159919807</t>
-  </si>
-  <si>
-    <t>MATIAS@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>INGENIERO</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -170,24 +67,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,130 +431,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col width="8.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="5.42578125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="10" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13.140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="8.85546875" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="9" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="8" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="14.5703125" customWidth="1" min="12" max="12"/>
+    <col width="13.140625" customWidth="1" min="13" max="13"/>
+    <col width="11" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="20.5703125" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="10.85546875" bestFit="1" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>apellido</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fechaNac</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>edad</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sexo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>direccion</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pisodpto</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>localidad</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>provincia</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>codPost</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nacionalidad</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>telfijo</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>celular</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>mail</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ocupacion</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Matias Ezequiel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>75864589</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18/10/2027</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ensenada 331</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CABA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CABA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1407</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ARGENTINO</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>46718250</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1159919807</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>MATIAS@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>INGENIERO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>01/01/1990</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Calle Falsa 123</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>011-12345678</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>11-987654321</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>juan.perez@example.com</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Ingeniero</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>01/01/1990</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Calle Falsa 123</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>011-12345678</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>11-987654321</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>juan.perez@example.com</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Ingeniero</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/CHATBOT/socios.xlsx
+++ b/CHATBOT/socios.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
@@ -785,6 +785,328 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>01/01/1990</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Calle Falsa 123</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>011-12345678</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>11-987654321</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>juan.perez@example.com</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Ingeniero</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>01/01/1990</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Calle Falsa 123</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>011-12345678</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>11-987654321</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>juan.perez@example.com</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Ingeniero</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pérez</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>01/01/1990</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Calle Falsa 123</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>011-12345678</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>11-987654321</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>juan.perez@example.com</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Ingeniero</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Matias</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>40731267</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18/10/1997</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ENSENADA 331</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CABA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CABA</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1407</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ARGENTINO</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1159919807</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>MATIAS@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>ING</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
